--- a/data/trans_bre/P62-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P62-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P62-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P62-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,87%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,13; -21,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,59; 2,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,28; -0,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,44; -0,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,09; -40,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,85; 8,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,96; -2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,81; -0,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,68%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,53; -23,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,01; -12,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,87; -6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; -12,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,25; -48,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,97; -26,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,28; -15,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,07; -23,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,74; -28,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,4; -8,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,02; -11,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,67; -13,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; -53,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,32; -21,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,56; -28,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,37; -27,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,51%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,91; -24,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; -6,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,79; -12,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,77; 13,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,47; -45,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,52; -17,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,82; -27,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,79; 23,65</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,08%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,47; -16,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,53; -11,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; -8,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; -6,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,59; -36,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,12; -25,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,16; -18,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,21; -13,32</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,7</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; -26,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; -11,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,13; -12,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; -6,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,51; -50,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,21; -27,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,94; -29,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,87; -11,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P62-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-35,85</t>
+          <t>-32,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>-17,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,27</t>
+          <t>-14,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,46</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-58,06%</t>
+          <t>-57,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,79%</t>
+          <t>-35,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,87%</t>
+          <t>-32,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>-31,38%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-52,13; -21,12</t>
+          <t>-39,21; -25,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 2,81</t>
+          <t>-24,5; -11,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,28; -0,8</t>
+          <t>-20,84; -7,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,44; -0,14</t>
+          <t>-25,84; -9,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,09; -40,71</t>
+          <t>-65,16; -49,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 8,07</t>
+          <t>-46,62; -25,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,96; -2,72</t>
+          <t>-44,84; -19,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,81; -0,86</t>
+          <t>-39,79; -18,65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,25</t>
+          <t>-34,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,56</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-16,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,61</t>
+          <t>-18,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-57,08%</t>
+          <t>-61,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,72%</t>
+          <t>-31,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,03%</t>
+          <t>-38,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,68%</t>
+          <t>-35,32%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,53; -23,97</t>
+          <t>-39,74; -28,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -12,41</t>
+          <t>-18,4; -8,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -6,3</t>
+          <t>-22,02; -11,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,7; -12,77</t>
+          <t>-25,08; -11,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,25; -48,02</t>
+          <t>-66,74; -53,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,97; -26,3</t>
+          <t>-42,32; -21,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,28; -15,0</t>
+          <t>-47,56; -28,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,07; -23,41</t>
+          <t>-44,06; -24,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-34,33</t>
+          <t>-31,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,03</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,92</t>
+          <t>-19,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,11</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-55,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,86%</t>
+          <t>-32,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-38,48%</t>
+          <t>-41,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-37,4%</t>
+          <t>-1,04%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -28,1</t>
+          <t>-38,91; -24,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -8,02</t>
+          <t>-19,08; -6,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -11,88</t>
+          <t>-25,79; -12,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,67; -13,86</t>
+          <t>-25,05; 26,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,74; -53,49</t>
+          <t>-62,47; -45,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -21,49</t>
+          <t>-44,52; -17,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -28,76</t>
+          <t>-50,82; -27,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,37; -27,74</t>
+          <t>-41,53; 50,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,7</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-16,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,32</t>
+          <t>-14,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,24</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,03%</t>
+          <t>-44,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>-35,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,38%</t>
+          <t>-28,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>-19,99%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -24,3</t>
+          <t>-28,47; -16,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; -6,36</t>
+          <t>-22,53; -11,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,79; -12,57</t>
+          <t>-20,39; -8,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 13,27</t>
+          <t>-16,04; -3,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -45,26</t>
+          <t>-53,59; -36,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -17,95</t>
+          <t>-45,12; -25,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,82; -27,56</t>
+          <t>-38,16; -18,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 23,65</t>
+          <t>-30,38; -8,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-22,17</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,91</t>
+          <t>-14,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,54</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,89</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-44,82%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-35,7%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-28,91%</t>
+          <t>-34,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,08%</t>
+          <t>-20,03%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,47; -16,62</t>
+          <t>-32,87; -26,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -11,19</t>
+          <t>-17,89; -11,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -8,54</t>
+          <t>-19,13; -12,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -6,17</t>
+          <t>-17,83; 4,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,59; -36,35</t>
+          <t>-58,51; -50,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -25,71</t>
+          <t>-39,21; -27,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,16; -18,46</t>
+          <t>-39,94; -29,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -13,32</t>
+          <t>-32,62; 8,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-29,92</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,95</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-16,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-15,7</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-54,84%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-33,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-34,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-27,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-32,87; -26,62</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-17,89; -11,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,13; -12,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-20,02; -6,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-58,51; -50,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -27,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,94; -29,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; -11,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P62-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P62-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -25,77</t>
+          <t>-38,18; -25,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,5; -11,71</t>
+          <t>-24,05; -10,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -7,85</t>
+          <t>-20,76; -8,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,84; -9,85</t>
+          <t>-25,83; -10,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -49,35</t>
+          <t>-64,2; -49,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -25,94</t>
+          <t>-45,88; -23,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,84; -19,47</t>
+          <t>-43,81; -19,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,79; -18,65</t>
+          <t>-40,02; -20,34</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -28,1</t>
+          <t>-39,98; -28,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -8,02</t>
+          <t>-18,5; -7,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -11,88</t>
+          <t>-22,93; -12,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,08; -11,88</t>
+          <t>-25,56; -11,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,74; -53,49</t>
+          <t>-67,28; -53,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -21,49</t>
+          <t>-41,65; -20,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -28,76</t>
+          <t>-48,81; -28,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,06; -24,74</t>
+          <t>-45,0; -24,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -24,3</t>
+          <t>-39,17; -24,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,08; -6,36</t>
+          <t>-18,82; -6,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,79; -12,57</t>
+          <t>-26,18; -12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 26,22</t>
+          <t>-25,03; 24,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -45,26</t>
+          <t>-62,68; -45,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -17,95</t>
+          <t>-43,61; -17,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,82; -27,56</t>
+          <t>-52,77; -29,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 50,02</t>
+          <t>-41,68; 50,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,47; -16,62</t>
+          <t>-28,55; -16,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -11,19</t>
+          <t>-22,26; -11,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -8,54</t>
+          <t>-20,57; -8,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -3,73</t>
+          <t>-15,75; -3,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,59; -36,35</t>
+          <t>-53,31; -35,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -25,71</t>
+          <t>-44,36; -25,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,16; -18,46</t>
+          <t>-38,54; -18,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,38; -8,61</t>
+          <t>-29,93; -7,91</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -26,62</t>
+          <t>-32,9; -26,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -11,86</t>
+          <t>-17,89; -12,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -12,98</t>
+          <t>-19,16; -13,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 4,71</t>
+          <t>-17,97; 7,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -50,56</t>
+          <t>-58,44; -50,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -27,86</t>
+          <t>-39,05; -28,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -29,18</t>
+          <t>-39,92; -29,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 8,71</t>
+          <t>-32,71; 13,63</t>
         </is>
       </c>
     </row>
